--- a/public/Check List.xlsx
+++ b/public/Check List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Quy chuan" sheetId="8" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="DataBase" sheetId="4" r:id="rId6"/>
     <sheet name="Permission" sheetId="5" r:id="rId7"/>
     <sheet name="Form" sheetId="7" r:id="rId8"/>
+    <sheet name="Validation" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -78,6 +79,9 @@
   </si>
   <si>
     <t>Field long has Max length is 250</t>
+  </si>
+  <si>
+    <t>Validation multi field Unique</t>
   </si>
 </sst>
 </file>
@@ -138,103 +142,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -655,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -696,7 +604,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -757,12 +665,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -833,12 +741,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -898,12 +806,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -921,7 +829,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,12 +894,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1051,12 +959,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1115,12 +1023,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1138,6 +1046,75 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>"Pass, Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1166,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1174,13 +1151,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
@@ -1189,7 +1160,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/Check List.xlsx
+++ b/public/Check List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Quy chuan" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Validation multi field Unique</t>
+  </si>
+  <si>
+    <t>Chuyển delCache sang file khác (mod tools)</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -563,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,11 +611,14 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -665,12 +679,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -688,7 +702,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,7 +743,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
@@ -738,20 +754,33 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"Pass, Failed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -806,12 +835,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -894,12 +923,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -959,12 +988,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1023,12 +1052,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1097,7 +1126,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1114,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1160,7 +1189,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/Check List.xlsx
+++ b/public/Check List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Quy chuan" sheetId="8" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Permission" sheetId="5" r:id="rId7"/>
     <sheet name="Form" sheetId="7" r:id="rId8"/>
     <sheet name="Validation" sheetId="9" r:id="rId9"/>
+    <sheet name="File" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -85,6 +86,16 @@
   </si>
   <si>
     <t>Chuyển delCache sang file khác (mod tools)</t>
+  </si>
+  <si>
+    <t>Phân tai cho file tai nguyen</t>
+  </si>
+  <si>
+    <t>File name: name.server.resize_method.type
+Không có server -&gt; file nằm ở server hiện tại</t>
+  </si>
+  <si>
+    <t>Multi DB Server</t>
   </si>
 </sst>
 </file>
@@ -133,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,11 +152,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -572,9 +618,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>"Pass, Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -598,12 +713,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -611,14 +726,18 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -679,12 +798,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -760,22 +879,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -835,12 +954,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -923,12 +1042,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -946,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -974,6 +1093,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -988,12 +1110,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1011,7 +1133,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1052,12 +1174,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1126,7 +1248,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1189,7 +1311,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
